--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldAddworksheets.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldAddworksheets.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="R6d422f0e84fb45d7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" r:id="Rd75a4f7ca21c4318"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="R1312ec12a227437e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" r:id="Rccf99522a6784d7b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -31,10 +31,18 @@
   </x:fills>
   <x:borders count="1">
     <x:border>
-      <x:left style="none"/>
-      <x:right style="none"/>
-      <x:top style="none"/>
-      <x:bottom style="none"/>
+      <x:left style="none">
+        <x:color indexed="0"/>
+      </x:left>
+      <x:right style="none">
+        <x:color indexed="0"/>
+      </x:right>
+      <x:top style="none">
+        <x:color indexed="0"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color indexed="0"/>
+      </x:bottom>
     </x:border>
   </x:borders>
   <x:cellXfs count="1">

--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldAddworksheets.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldAddworksheets.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="R1312ec12a227437e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" r:id="Rccf99522a6784d7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="Rcbba2503fc9d4344"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" r:id="R2ed573980be54f24"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -17,7 +17,7 @@
   <x:fonts count="1">
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="0"/>
+      <x:color rgb="000000"/>
       <x:name val="Calibri"/>
     </x:font>
   </x:fonts>
@@ -32,16 +32,16 @@
   <x:borders count="1">
     <x:border>
       <x:left style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:left>
       <x:right style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:right>
       <x:top style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:top>
       <x:bottom style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
